--- a/namelist.xlsx
+++ b/namelist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/azhartan/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717FF566-708B-6D42-87C8-62F87D2BC860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1541DB-7C57-B643-BD35-FCCC9BBF81E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="25040" windowHeight="13680" xr2:uid="{0567FDC4-D285-6B44-9FBC-87337C398008}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
-  <si>
-    <t>S/N</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Name</t>
   </si>
@@ -56,12 +53,6 @@
     <t>Vehicle</t>
   </si>
   <si>
-    <t>Posting date</t>
-  </si>
-  <si>
-    <t>Deposted Date</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -128,12 +119,6 @@
     <t>S3554L</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>N.A.</t>
   </si>
   <si>
@@ -150,6 +135,15 @@
   </si>
   <si>
     <t>123 bsdk slhf</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Posting Date</t>
+  </si>
+  <si>
+    <t>De-posted Date</t>
   </si>
 </sst>
 </file>
@@ -157,7 +151,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="dd\ mmm\ yy"/>
+    <numFmt numFmtId="164" formatCode="dd\ mmm\ yy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -191,7 +185,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,7 +523,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="N1" sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -541,55 +535,55 @@
     <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="17.5" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="H1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -597,79 +591,67 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
       </c>
       <c r="G2">
         <v>98765432</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2">
         <v>20</v>
       </c>
-      <c r="L2" s="2">
-        <v>45333</v>
-      </c>
-      <c r="M2" s="2"/>
-      <c r="N2" t="s">
-        <v>33</v>
-      </c>
+      <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>25</v>
       </c>
-      <c r="I3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" t="s">
-        <v>31</v>
-      </c>
       <c r="K3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="2">
-        <v>44239</v>
-      </c>
-      <c r="M3" s="2">
+        <v>29</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="2">
         <v>45334</v>
-      </c>
-      <c r="N3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -677,36 +659,30 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>26</v>
       </c>
-      <c r="I4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4">
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4">
         <v>5</v>
       </c>
-      <c r="L4" s="2">
-        <v>45335</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" t="s">
-        <v>33</v>
-      </c>
+      <c r="N4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/namelist.xlsx
+++ b/namelist.xlsx
@@ -1,170 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/azhartan/Documents/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1541DB-7C57-B643-BD35-FCCC9BBF81E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="25040" windowHeight="13680" xr2:uid="{0567FDC4-D285-6B44-9FBC-87337C398008}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="380" yWindow="500" windowWidth="25040" windowHeight="13680" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="181029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Designation</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>Vehicle</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Dietary Restrictions</t>
-  </si>
-  <si>
-    <t>Golf</t>
-  </si>
-  <si>
-    <t>Golf Handicap</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>DEF</t>
-  </si>
-  <si>
-    <t>GHI</t>
-  </si>
-  <si>
-    <t>Albert</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Mary</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>ASC</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
-    <t>NIL</t>
-  </si>
-  <si>
-    <t>No peanut</t>
-  </si>
-  <si>
-    <t>no dairy</t>
-  </si>
-  <si>
-    <t>S1234G</t>
-  </si>
-  <si>
-    <t>S3565G, S7599H</t>
-  </si>
-  <si>
-    <t>S3554L</t>
-  </si>
-  <si>
-    <t>N.A.</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>Deposted</t>
-  </si>
-  <si>
-    <t>Contact No.</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>123 bsdk slhf</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Posting Date</t>
-  </si>
-  <si>
-    <t>De-posted Date</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd\ mmm\ yy"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -182,24 +48,84 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -519,170 +445,308 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B0DDD82-6458-864D-8905-13FC7063F4CF}">
-  <dimension ref="A1:N4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N1" sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.5" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
-    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col width="4.1640625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="8.5" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="8.83203125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="6" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="17.5" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="17.5" customWidth="1" min="7" max="8"/>
+    <col width="14.6640625" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="14.6640625" customWidth="1" min="10" max="10"/>
+    <col width="9" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="9" customWidth="1" min="12" max="12"/>
+    <col width="12.6640625" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="13.33203125" bestFit="1" customWidth="1" style="1" min="14" max="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Designation</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Dietary Restrictions</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Contact No.</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Vehicle</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Posting Date</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Golf</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Golf Handicap</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>De-posted Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Albert</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NIL</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>98765432</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>123 bsdk slhf</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>S1234G</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>20</v>
+      </c>
+      <c r="N2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ASC</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>No peanut</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>S3565G, S7599H</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Deposted</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>45334</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>GHI</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mary</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>no dairy</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>S3554L</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="N4" s="2" t="n"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2">
-        <v>98765432</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2">
-        <v>20</v>
-      </c>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="2">
-        <v>45334</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4">
-        <v>5</v>
-      </c>
-      <c r="N4" s="2"/>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ABC ENTERPRISE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>JOHN DOE</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>EXECUTIVE</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NIL</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>987654321</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>123 ENTERPRISE RD</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>SJE 3845 H</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>44692</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>N.A.</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/namelist.xlsx
+++ b/namelist.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N1" sqref="A1:N1"/>
@@ -598,151 +598,103 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DEF</t>
+          <t>GHI</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Mary</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ASC</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>No peanut</t>
+          <t>no dairy</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>S3565G, S7599H</t>
+          <t>S3554L</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Deposted</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>N.A.</t>
-        </is>
-      </c>
-      <c r="N3" s="2" t="n">
-        <v>45334</v>
-      </c>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>SINGAPORE</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GHI</t>
+          <t>ABC ENTERPRISE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Mary</t>
+          <t>JOHN DOE</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>EXECUTIVE</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>no dairy</t>
+          <t>NIL</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>987654321</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>123 ENTERPRISE RD</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>S3554L</t>
-        </is>
+          <t>SJE 3845 H</t>
+        </is>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>44692</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" s="2" t="n"/>
-    </row>
-    <row r="5">
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>SINGAPORE</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ABC ENTERPRISE</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>JOHN DOE</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>EXECUTIVE</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NIL</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>987654321</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>123 ENTERPRISE RD</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>SJE 3845 H</t>
-        </is>
-      </c>
-      <c r="J5" s="3" t="n">
-        <v>44692</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>N.A.</t>
         </is>

--- a/namelist.xlsx
+++ b/namelist.xlsx
@@ -1,36 +1,182 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/azhartan/Documents/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07CF3CE-C8B0-504D-A7F9-0C086F9F8140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="380" yWindow="500" windowWidth="25040" windowHeight="13680" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="25040" windowHeight="13680" xr2:uid="{0567FDC4-D285-6B44-9FBC-87337C398008}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Designation</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Dietary Restrictions</t>
+  </si>
+  <si>
+    <t>Golf</t>
+  </si>
+  <si>
+    <t>Golf Handicap</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>DEF</t>
+  </si>
+  <si>
+    <t>GHI</t>
+  </si>
+  <si>
+    <t>Albert</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>ASC</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>NIL</t>
+  </si>
+  <si>
+    <t>No peanut</t>
+  </si>
+  <si>
+    <t>no dairy</t>
+  </si>
+  <si>
+    <t>S1234G</t>
+  </si>
+  <si>
+    <t>S3565G, S7599H</t>
+  </si>
+  <si>
+    <t>S3554L</t>
+  </si>
+  <si>
+    <t>N.A.</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Deposted</t>
+  </si>
+  <si>
+    <t>Contact No.</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>123 bsdk slhf</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Posting Date</t>
+  </si>
+  <si>
+    <t>De-posted Date</t>
+  </si>
+  <si>
+    <t>JKL</t>
+  </si>
+  <si>
+    <t>Tony</t>
+  </si>
+  <si>
+    <t>2134 DSFKJN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SADF </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\ mmm\ yy"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -48,84 +194,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -445,259 +531,198 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B0DDD82-6458-864D-8905-13FC7063F4CF}">
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="A1:N1"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="4.1640625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="8.5" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="8.83203125" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="6" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="17.5" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="17.5" customWidth="1" min="7" max="8"/>
-    <col width="14.6640625" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="14.6640625" customWidth="1" min="10" max="10"/>
-    <col width="9" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="9" customWidth="1" min="12" max="12"/>
-    <col width="12.6640625" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="13.33203125" bestFit="1" customWidth="1" style="1" min="14" max="14"/>
+    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Country</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Designation</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Dietary Restrictions</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Contact No.</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Address</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Vehicle</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Posting Date</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Golf</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Golf Handicap</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>De-posted Date</t>
-        </is>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>ABC</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Albert</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NIL</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2">
         <v>98765432</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>123 bsdk slhf</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>S1234G</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="M2" t="n">
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2">
         <v>20</v>
       </c>
-      <c r="N2" s="2" t="n"/>
+      <c r="N2" s="2"/>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="2">
+        <v>45334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>GHI</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Mary</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>no dairy</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>S3554L</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4">
         <v>5</v>
       </c>
-      <c r="N3" s="2" t="n"/>
+      <c r="N4" s="2"/>
     </row>
-    <row r="4">
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>SINGAPORE</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ABC ENTERPRISE</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>JOHN DOE</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>EXECUTIVE</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NIL</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>987654321</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>123 ENTERPRISE RD</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>SJE 3845 H</t>
-        </is>
-      </c>
-      <c r="J4" s="3" t="n">
-        <v>44692</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>N.A.</t>
-        </is>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5">
+        <v>930220340</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
